--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>type</t>
   </si>
@@ -53,6 +53,18 @@
     <t>Mid</t>
   </si>
   <si>
+    <t>word1</t>
+  </si>
+  <si>
+    <t>word2</t>
+  </si>
+  <si>
+    <t>word3</t>
+  </si>
+  <si>
+    <t>word4</t>
+  </si>
+  <si>
     <t>怪物名称</t>
   </si>
   <si>
@@ -75,6 +87,18 @@
   </si>
   <si>
     <t>怪物ID</t>
+  </si>
+  <si>
+    <t>自带技能1</t>
+  </si>
+  <si>
+    <t>自带技能2</t>
+  </si>
+  <si>
+    <t>自带技能3</t>
+  </si>
+  <si>
+    <t>自带技能4</t>
   </si>
   <si>
     <t>string</t>
@@ -1054,13 +1078,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
@@ -1076,7 +1100,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,65 +1125,101 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>30</v>
@@ -1177,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>36</v>
@@ -1201,13 +1261,13 @@
         <v>18</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4">
         <v>43</v>
@@ -1225,13 +1285,13 @@
         <v>22</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
         <v>52</v>
@@ -1249,13 +1309,13 @@
         <v>26</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4">
         <v>67</v>
@@ -1273,13 +1333,13 @@
         <v>34</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4">
         <v>88</v>
@@ -1297,13 +1357,13 @@
         <v>44</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4">
         <v>114</v>
@@ -1321,13 +1381,13 @@
         <v>57</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4">
         <v>148</v>
@@ -1345,13 +1405,13 @@
         <v>74</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4">
         <v>192</v>
@@ -1369,15 +1429,15 @@
         <v>96</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" s="3">
         <v>30</v>
@@ -1395,13 +1455,13 @@
         <v>15</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4">
         <v>36</v>
@@ -1419,13 +1479,13 @@
         <v>18</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>43</v>
@@ -1443,13 +1503,13 @@
         <v>22</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4">
         <v>52</v>
@@ -1467,13 +1527,13 @@
         <v>26</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4">
         <v>67</v>
@@ -1491,13 +1551,13 @@
         <v>34</v>
       </c>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4">
         <v>88</v>
@@ -1515,13 +1575,13 @@
         <v>44</v>
       </c>
       <c r="H19" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4">
         <v>114</v>
@@ -1539,13 +1599,13 @@
         <v>57</v>
       </c>
       <c r="H20" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4">
         <v>148</v>
@@ -1563,13 +1623,13 @@
         <v>74</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4">
         <v>192</v>
@@ -1587,15 +1647,15 @@
         <v>96</v>
       </c>
       <c r="H22" s="3">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23" s="3">
         <v>21</v>
@@ -1613,13 +1673,13 @@
         <v>15</v>
       </c>
       <c r="H23" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <v>25</v>
@@ -1637,13 +1697,13 @@
         <v>18</v>
       </c>
       <c r="H24" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -1661,13 +1721,13 @@
         <v>22</v>
       </c>
       <c r="H25" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4">
         <v>36</v>
@@ -1685,13 +1745,13 @@
         <v>26</v>
       </c>
       <c r="H26" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4">
         <v>47</v>
@@ -1709,13 +1769,13 @@
         <v>34</v>
       </c>
       <c r="H27" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4">
         <v>61</v>
@@ -1733,13 +1793,13 @@
         <v>44</v>
       </c>
       <c r="H28" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="4">
         <v>80</v>
@@ -1757,13 +1817,13 @@
         <v>57</v>
       </c>
       <c r="H29" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4">
         <v>104</v>
@@ -1781,13 +1841,13 @@
         <v>74</v>
       </c>
       <c r="H30" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4">
         <v>135</v>
@@ -1805,15 +1865,15 @@
         <v>96</v>
       </c>
       <c r="H31" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32" s="3">
         <v>18</v>
@@ -1831,13 +1891,13 @@
         <v>12</v>
       </c>
       <c r="H32" s="3">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4">
         <v>22</v>
@@ -1855,13 +1915,13 @@
         <v>14</v>
       </c>
       <c r="H33" s="3">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4">
         <v>26</v>
@@ -1879,12 +1939,12 @@
         <v>17</v>
       </c>
       <c r="H34" s="3">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4">
         <v>31</v>
@@ -1902,12 +1962,12 @@
         <v>21</v>
       </c>
       <c r="H35" s="3">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4">
         <v>40</v>
@@ -1925,12 +1985,12 @@
         <v>27</v>
       </c>
       <c r="H36" s="3">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="4">
         <v>53</v>
@@ -1948,12 +2008,12 @@
         <v>35</v>
       </c>
       <c r="H37" s="3">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4">
         <v>68</v>
@@ -1971,12 +2031,12 @@
         <v>46</v>
       </c>
       <c r="H38" s="3">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4">
         <v>89</v>
@@ -1994,12 +2054,12 @@
         <v>59</v>
       </c>
       <c r="H39" s="3">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="4">
         <v>115</v>
@@ -2017,15 +2077,15 @@
         <v>77</v>
       </c>
       <c r="H40" s="3">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41" s="3">
         <v>27</v>
@@ -2043,12 +2103,12 @@
         <v>12</v>
       </c>
       <c r="H41" s="3">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="4">
         <v>32</v>
@@ -2066,12 +2126,12 @@
         <v>14</v>
       </c>
       <c r="H42" s="3">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="4">
         <v>39</v>
@@ -2089,12 +2149,12 @@
         <v>17</v>
       </c>
       <c r="H43" s="3">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="4">
         <v>47</v>
@@ -2112,12 +2172,12 @@
         <v>21</v>
       </c>
       <c r="H44" s="3">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="4">
         <v>61</v>
@@ -2135,12 +2195,12 @@
         <v>27</v>
       </c>
       <c r="H45" s="3">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="4">
         <v>79</v>
@@ -2158,12 +2218,12 @@
         <v>35</v>
       </c>
       <c r="H46" s="3">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="4">
         <v>103</v>
@@ -2181,12 +2241,12 @@
         <v>46</v>
       </c>
       <c r="H47" s="3">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="4">
         <v>133</v>
@@ -2204,12 +2264,12 @@
         <v>59</v>
       </c>
       <c r="H48" s="3">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" s="4">
         <v>173</v>
@@ -2227,7 +2287,7 @@
         <v>77</v>
       </c>
       <c r="H49" s="3">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="2:2">

--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>type</t>
   </si>
@@ -1080,8 +1080,8 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1241,7 +1241,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1265,7 +1267,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1289,7 +1293,9 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -1313,7 +1319,9 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -1337,7 +1345,9 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1361,7 +1371,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -1385,7 +1397,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -1409,7 +1423,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -1459,7 +1475,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
@@ -1483,7 +1501,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1507,7 +1527,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1531,7 +1553,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1555,7 +1579,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -1579,7 +1605,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B20" s="3">
         <v>6</v>
       </c>
@@ -1603,7 +1631,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B21" s="3">
         <v>7</v>
       </c>
@@ -1627,7 +1657,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="3">
         <v>8</v>
       </c>
@@ -1677,7 +1709,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
@@ -1701,7 +1735,9 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
@@ -1725,7 +1761,9 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
@@ -1749,7 +1787,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
@@ -1773,7 +1813,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
@@ -1797,7 +1839,9 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B29" s="3">
         <v>6</v>
       </c>
@@ -1821,7 +1865,9 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B30" s="3">
         <v>7</v>
       </c>
@@ -1845,7 +1891,9 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B31" s="3">
         <v>8</v>
       </c>
@@ -1895,7 +1943,9 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
@@ -1919,7 +1969,9 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B34" s="3">
         <v>2</v>
       </c>
@@ -1942,7 +1994,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B35" s="3">
         <v>3</v>
       </c>
@@ -1965,7 +2020,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B36" s="3">
         <v>4</v>
       </c>
@@ -1988,7 +2046,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B37" s="3">
         <v>5</v>
       </c>
@@ -2011,7 +2072,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B38" s="3">
         <v>6</v>
       </c>
@@ -2034,7 +2098,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B39" s="3">
         <v>7</v>
       </c>
@@ -2057,7 +2124,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B40" s="3">
         <v>8</v>
       </c>
@@ -2106,7 +2176,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
       <c r="B42" s="3">
         <v>1</v>
       </c>
@@ -2129,7 +2202,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
       <c r="B43" s="3">
         <v>2</v>
       </c>
@@ -2152,7 +2228,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
       <c r="B44" s="3">
         <v>3</v>
       </c>
@@ -2175,7 +2254,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
       <c r="B45" s="3">
         <v>4</v>
       </c>
@@ -2198,7 +2280,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
       <c r="B46" s="3">
         <v>5</v>
       </c>
@@ -2221,7 +2306,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
       <c r="B47" s="3">
         <v>6</v>
       </c>
@@ -2244,7 +2332,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
       <c r="B48" s="3">
         <v>7</v>
       </c>
@@ -2267,7 +2358,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
       <c r="B49" s="3">
         <v>8</v>
       </c>
